--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2156298.631342012</v>
+        <v>2158059.161644797</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>363.7448173345641</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548844</v>
+        <v>156.6862937548841</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607277</v>
+        <v>62.22601572607226</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>176.9186070372288</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>136.5970034220423</v>
       </c>
       <c r="H3" t="n">
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031463</v>
+        <v>63.69429571031448</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870426</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799448</v>
+        <v>157.8170057799447</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
-        <v>132.8188414601033</v>
+        <v>79.01034292140916</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.34522014008594</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>109.8298712008014</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>234.5182463199966</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,7 +949,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>81.89721766395515</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>87.1050900026125</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320299</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>122.0974423103673</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>79.82547003249388</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>227.3909917524146</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.3332554667404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881298</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>115.7063133373731</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6382410682457</v>
+        <v>101.9434035445956</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272921</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>41.33703994142951</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417098</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>73.98898794535457</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>53.07327741456097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>212.8988206105722</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977487</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>177.2869857517495</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1747.411096077307</v>
+        <v>1714.993863269184</v>
       </c>
       <c r="C2" t="n">
-        <v>1378.448579136895</v>
+        <v>1346.031346328772</v>
       </c>
       <c r="D2" t="n">
-        <v>1020.182880530145</v>
+        <v>987.7656477220219</v>
       </c>
       <c r="E2" t="n">
-        <v>634.3946279319008</v>
+        <v>987.7656477220219</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>576.7797429324144</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>209.3607355237637</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>209.3607355237637</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710341</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005007</v>
+        <v>435.2148351005026</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311636</v>
+        <v>833.2666318311667</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537224</v>
+        <v>1292.782497537228</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813642</v>
+        <v>1745.101812813648</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132811</v>
+        <v>2127.026478132818</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935764</v>
+        <v>2415.315960935773</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648575</v>
+        <v>2554.587596648584</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309107</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815397</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="T2" t="n">
-        <v>2134.010936141429</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="U2" t="n">
-        <v>2134.010936141429</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.010936141429</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.010936141429</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.010936141429</v>
+        <v>2491.733035309117</v>
       </c>
       <c r="Y2" t="n">
-        <v>2134.010936141429</v>
+        <v>2101.593703333306</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>988.6522061135607</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>814.1991768324337</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>665.2647671711825</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>506.027312165727</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>359.492754192612</v>
       </c>
       <c r="G3" t="n">
         <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>115.4294243676328</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687508</v>
+        <v>120.1765123687514</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270539</v>
+        <v>364.8742147270552</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335557</v>
+        <v>755.3048694066761</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360704</v>
+        <v>1262.898249633826</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358681</v>
+        <v>1799.633129631804</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635553</v>
+        <v>2224.225006908677</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153966</v>
+        <v>2547.994353427091</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648575</v>
+        <v>2554.587596648584</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648575</v>
+        <v>2500.23557792262</v>
       </c>
       <c r="S3" t="n">
-        <v>2395.176479699136</v>
+        <v>2340.824460973181</v>
       </c>
       <c r="T3" t="n">
-        <v>2196.029252983356</v>
+        <v>2141.677234257402</v>
       </c>
       <c r="U3" t="n">
         <v>2061.86880706406</v>
@@ -4448,7 +4448,7 @@
         <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1572.479342104115</v>
       </c>
       <c r="X3" t="n">
         <v>1364.627841898583</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9476153535176</v>
+        <v>162.0310157721651</v>
       </c>
       <c r="C4" t="n">
-        <v>496.0114324256107</v>
+        <v>162.0310157721651</v>
       </c>
       <c r="D4" t="n">
-        <v>345.894793013275</v>
+        <v>162.0310157721651</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9816994308819</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297149</v>
+        <v>51.09175193297168</v>
       </c>
       <c r="K4" t="n">
-        <v>101.030457077186</v>
+        <v>101.0304570771866</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703268</v>
+        <v>220.4612409703279</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486094</v>
+        <v>356.7733802486111</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493195</v>
+        <v>495.2789379493217</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455635</v>
+        <v>607.1949427455663</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071397</v>
+        <v>679.437736707143</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071397</v>
+        <v>390.0205666701824</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071397</v>
+        <v>162.0310157721651</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.4377367071397</v>
+        <v>162.0310157721651</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.33694126659</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="C5" t="n">
         <v>1623.374424326178</v>
@@ -4570,22 +4570,22 @@
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M5" t="n">
-        <v>1215.460820653039</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N5" t="n">
-        <v>1409.795033545021</v>
+        <v>1966.882928425336</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4597,22 +4597,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2323.39982861016</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2323.39982861016</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>1992.33694126659</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>1992.33694126659</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.33694126659</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.33694126659</v>
+        <v>1860.261541821124</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
         <v>482.0435770467751</v>
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1247.297767139118</v>
+        <v>816.0613771010075</v>
       </c>
       <c r="N6" t="n">
-        <v>1881.476750918157</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
-        <v>2430.912759670879</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2463.013155273854</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4764,10 +4764,10 @@
         <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>927.850718218896</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X7" t="n">
-        <v>699.8611673208786</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
         <v>699.8611673208786</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218655</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218655</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218655</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>918.0161179218655</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2207.952250469642</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218655</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218655</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K9" t="n">
-        <v>312.4344762351465</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>607.1380332666182</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>970.4000522258383</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601822</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637004</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>172.7955294637004</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>172.7955294637004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939401</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>991.7436897307826</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>822.8075068028758</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>672.69086739054</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>524.7777738081469</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>377.8878263102365</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>210.6917270251164</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876649</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258102</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.4315576023</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396413</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359452</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614348</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179047</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6305,16 +6305,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6691,46 +6691,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6922,43 +6922,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7159,28 +7159,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3403484614387</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478298</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797767</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579365</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373478</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X43" t="n">
-        <v>965.2064322262529</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>212.1128490679863</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>51.34979150037897</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>310.9942044686661</v>
+        <v>282.3928579664021</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>449.0750350374088</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>346.9737134873293</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>14.25823202432849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.58839950885076</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6085800303821</v>
+        <v>65.30341755403228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>72.4449747012146</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>73.62417772601876</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>121.586274966449</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>48.4226696372877</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938546.6780554518</v>
+        <v>938546.678055452</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973922</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.284775255</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752547</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752548</v>
-      </c>
       <c r="L2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161961</v>
+        <v>548460.0746161988</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299275</v>
+        <v>225009.9816299249</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843799</v>
+        <v>167098.1292843806</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243602113</v>
+        <v>498.7619243595318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198066</v>
+        <v>247452.3619198058</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26426,40 +26426,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719665</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171975</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171975</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171975</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171977</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171977</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946022</v>
+        <v>80023.31371946042</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280680.4671038576</v>
+        <v>-280680.46710386</v>
       </c>
       <c r="C6" t="n">
-        <v>86419.73008247367</v>
+        <v>86419.73008247577</v>
       </c>
       <c r="D6" t="n">
-        <v>77518.63764198966</v>
+        <v>77518.63764198947</v>
       </c>
       <c r="E6" t="n">
-        <v>-31281.43438927535</v>
+        <v>-30968.7930603539</v>
       </c>
       <c r="F6" t="n">
-        <v>476204.0072352709</v>
+        <v>476516.6485641918</v>
       </c>
       <c r="G6" t="n">
-        <v>476204.0072352709</v>
+        <v>476516.6485641922</v>
       </c>
       <c r="H6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="I6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="J6" t="n">
-        <v>309105.877950891</v>
+        <v>309418.5192798119</v>
       </c>
       <c r="K6" t="n">
-        <v>475705.2453109108</v>
+        <v>476017.8866398327</v>
       </c>
       <c r="L6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.6485641922</v>
       </c>
       <c r="M6" t="n">
-        <v>343596.7135063438</v>
+        <v>343909.3548352655</v>
       </c>
       <c r="N6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641918</v>
       </c>
       <c r="O6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="P6" t="n">
-        <v>476204.0072352705</v>
+        <v>476516.6485641922</v>
       </c>
     </row>
   </sheetData>
@@ -26712,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817385</v>
+        <v>347.0634059817405</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621437</v>
+        <v>638.646899162146</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817385</v>
+        <v>347.0634059817405</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563266</v>
+        <v>246.4126943563246</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794741</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621437</v>
+        <v>638.646899162146</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937895198</v>
+        <v>1.937932937892811</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621437</v>
+        <v>638.646899162146</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895198</v>
+        <v>1.937932937892356</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621437</v>
+        <v>638.646899162146</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895198</v>
+        <v>1.937932937892811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>50.16269040778002</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387723</v>
       </c>
       <c r="T2" t="n">
-        <v>40.06962419651035</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870453</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>93.07342787474201</v>
+        <v>146.8819264134362</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4867600418514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36.60409144576772</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601737</v>
+        <v>49.11144063601711</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845188</v>
+        <v>33.75546894845158</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>130.7546454510109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>130.7546454510108</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>70.53999045278844</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278857</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>164.4255560262237</v>
+        <v>157.3005539892813</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>327.0505757092176</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>23.65425837604741</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.10070717982882</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.144708848783168e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.623957673316532e-12</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.623957673316532e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30222,16 +30222,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.394556243371143e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,16 +30510,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.555999175616527e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790907</v>
+        <v>1.395229772790915</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059488</v>
+        <v>14.28889691059497</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552151</v>
+        <v>53.78959581552181</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284124</v>
+        <v>118.4183829284131</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106515</v>
+        <v>177.4784592106525</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697013</v>
+        <v>220.1777223697026</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415716</v>
+        <v>244.990139841573</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335138</v>
+        <v>248.9543364335152</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803242</v>
+        <v>235.0805203803255</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645486</v>
+        <v>200.6357853645498</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264742</v>
+        <v>150.6691191264751</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507691</v>
+        <v>87.64310221507742</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747283</v>
+        <v>31.79379844747302</v>
       </c>
       <c r="T2" t="n">
-        <v>6.1076183303922</v>
+        <v>6.107618330392235</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232726</v>
+        <v>0.1116183818232732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682676</v>
+        <v>0.746513741168272</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809323</v>
+        <v>7.209751131809364</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110045</v>
+        <v>25.7023371411006</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502481</v>
+        <v>70.52917762502521</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832987</v>
+        <v>120.5455982832994</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426978</v>
+        <v>162.0884331426987</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600474</v>
+        <v>189.1495562600485</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821803</v>
+        <v>194.1557821821814</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857676</v>
+        <v>177.6146092857686</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323861</v>
+        <v>142.551382732387</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351431</v>
+        <v>95.29182422351487</v>
       </c>
       <c r="R3" t="n">
-        <v>46.3493356139386</v>
+        <v>46.34933561393887</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389303</v>
+        <v>13.86616532389311</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200165</v>
+        <v>3.008974246200183</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949131</v>
+        <v>0.0491127461294916</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736267</v>
+        <v>0.6258520435736302</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772794</v>
+        <v>5.564393623772826</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946871</v>
+        <v>18.82107781946882</v>
       </c>
       <c r="J4" t="n">
-        <v>44.2477394806554</v>
+        <v>44.24773948065566</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519043</v>
+        <v>72.71262833519084</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730084</v>
+        <v>93.04713018730138</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218221</v>
+        <v>98.10515261218278</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886241</v>
+        <v>95.77243135886296</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711592</v>
+        <v>88.46134157711643</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821387</v>
+        <v>75.69395988821431</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324251</v>
+        <v>52.40657430324281</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468324</v>
+        <v>28.1405837046834</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027856</v>
+        <v>10.90689425027863</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269132</v>
+        <v>2.674095095269147</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492513</v>
+        <v>0.03413738419492533</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601599</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770854</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990649</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146299</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737999</v>
+        <v>106.4690935738005</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368357</v>
+        <v>281.5340207368367</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501645</v>
+        <v>402.0725219501658</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071314</v>
+        <v>464.1574401071327</v>
       </c>
       <c r="N2" t="n">
-        <v>456.888197248907</v>
+        <v>456.8881972489085</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213828</v>
+        <v>385.7824902213841</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807617</v>
+        <v>291.2014977807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119294</v>
+        <v>140.6784199119303</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876696</v>
+        <v>69.78258629876736</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215183</v>
+        <v>247.169396321519</v>
       </c>
       <c r="L3" t="n">
-        <v>235.6469024308099</v>
+        <v>394.3743986662837</v>
       </c>
       <c r="M3" t="n">
-        <v>512.720586088029</v>
+        <v>512.7205860880301</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424005</v>
+        <v>542.1564444424016</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180527</v>
+        <v>428.8806841180538</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579931</v>
+        <v>327.0397439579939</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733419</v>
+        <v>6.659841637872318</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930758</v>
+        <v>50.44313650930799</v>
       </c>
       <c r="L4" t="n">
-        <v>120.637155447617</v>
+        <v>120.6371554476175</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740228</v>
+        <v>137.6890295740234</v>
       </c>
       <c r="N4" t="n">
-        <v>139.904603738091</v>
+        <v>139.9046037380916</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911556</v>
+        <v>113.0464694911561</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310736</v>
+        <v>72.9725191531078</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>482.8821088292312</v>
+        <v>454.2807623269672</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>630.3854757996359</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>547.6370888940613</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K9" t="n">
-        <v>200.8457282678133</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802858</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>509.913862993752</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770466</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402709</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295573</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066275</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
